--- a/data/trans_dic/P31_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>96,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>97,32%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>97,44%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>98,22%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>94,98%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>95,25%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>92,05%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>93,24%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>95,57%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,36; 93,9</t>
+          <t>89,2; 93,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,71; 94,1</t>
+          <t>89,94; 94,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,78; 90,08</t>
+          <t>84,36; 90,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,37; 98,65</t>
+          <t>85,6; 91,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,41; 98,62</t>
+          <t>88,54; 93,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,8; 97,49</t>
+          <t>90,3; 94,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,34; 95,97</t>
+          <t>96,53; 98,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,79; 96,21</t>
+          <t>96,79; 98,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,22; 93,37</t>
+          <t>94,78; 97,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>95,31; 98,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96,33; 98,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>97,25; 99,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>93,58; 96,13</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>93,98; 96,39</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>90,24; 93,39</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>91,41; 94,79</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>92,91; 95,36</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>94,37; 96,7</t>
         </is>
       </c>
     </row>
@@ -747,42 +910,87 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>98,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>98,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>98,31%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>93,46%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>95,14%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>93,24%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>93,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>93,76%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,66; 92,89</t>
+          <t>87,01; 92,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,54; 94,72</t>
+          <t>89,07; 94,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,62; 91,31</t>
+          <t>84,72; 91,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,79; 98,05</t>
+          <t>83,27; 92,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,83; 99,06</t>
+          <t>84,12; 92,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,57; 98,98</t>
+          <t>87,39; 95,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,54; 95,07</t>
+          <t>94,59; 97,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 96,51</t>
+          <t>96,88; 99,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,44; 94,91</t>
+          <t>96,69; 98,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 98,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>95,63; 99,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95,55; 99,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>91,42; 94,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>93,39; 96,39</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>91,11; 94,82</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>90,47; 95,31</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>91,08; 95,94</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>92,36; 96,82</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>98,48%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>99,59%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>97,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>98,43%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>99,58%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>97,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>98,48%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>96,65%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>95,71%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,36; 98,22</t>
+          <t>89,97; 98,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,98; 100,0</t>
+          <t>94,4; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,93; 97,62</t>
+          <t>88,47; 97,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>96,19; 100,0</t>
+          <t>84,47; 97,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,65; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,7; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,25; 98,84</t>
+          <t>96,63; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,93; 99,38</t>
+          <t>94,02; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,82; 98,34</t>
+          <t>97,93; 100,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>93,45; 100,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>94,83; 98,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>96,06; 99,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>93,99; 98,49</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>91,22; 98,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>97,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97,72%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>97,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>98,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>94,66%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>95,59%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>93,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>93,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>94,11%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>95,44%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,75; 93,21</t>
+          <t>89,74; 93,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,45; 94,4</t>
+          <t>91,4; 94,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,64; 90,61</t>
+          <t>86,22; 90,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,27; 98,21</t>
+          <t>86,73; 91,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,2; 98,63</t>
+          <t>88,61; 92,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,35; 98,09</t>
+          <t>90,49; 94,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,45; 95,44</t>
+          <t>96,64; 98,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>97,34; 98,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>96,46; 98,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,56; 98,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96,68; 98,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97,41; 98,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>93,72; 95,52</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
           <t>94,66; 96,32</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>91,98; 94,19</t>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>91,89; 94,03</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>92,16; 94,76</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>92,91; 95,18</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>94,42; 96,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>520.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>598.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>669.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>791.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>828.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>834.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>844.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1189.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1412.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1430.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1040.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1455.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1442.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1495107</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1492778</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1436299</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1408662</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>207833</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>200843</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1747351</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1732923</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1742893</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1645345</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>231800</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>224804</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3242458</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3225701</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3179192</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3054006</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>439633</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>425647</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1453476; 1528460</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1454404; 1522833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1387956; 1481553</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1356522; 1452841</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>202518; 212721</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>195487; 204927</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1722304; 1763196</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1712668; 1747376</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1714269; 1763405</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1611358; 1665266</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>229158; 233896</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>222594; 226607</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3194559; 3281520</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3182623; 3264354</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3116689; 3225682</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2993990; 3104762</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>433523; 444986</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>420299; 430658</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>488.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>617.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>476.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>899.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1096.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1088.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>837.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>438.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1229557</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1253291</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1220660</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1156185</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64833</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64946</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1319571</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1331379</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1343743</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1308614</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64415</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63501</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2549128</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2584670</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2564403</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2464799</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>129249</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>128447</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1184748; 1263682</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1212337; 1286445</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1168678; 1262314</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1082082; 1200850</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>60807; 67144</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61692; 67286</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1292090; 1336930</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1313441; 1342934</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1325319; 1356474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1288825; 1320622</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>62694; 65235</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>61717; 64341</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2493538; 2586950</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2537161; 2618705</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2505705; 2607886</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2384891; 2512329</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>125549; 132253</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>124862; 130884</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>400378</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>411326</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>396567</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>372263</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>402632</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>396035</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>410181</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>384075</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>803010</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>807361</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>806748</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>756338</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>377961; 412583</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>394310; 417720</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>374063; 411571</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>339343; 390566</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>391554; 405198</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>378082; 402144</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>403360; 411895</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>363004; 388464</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>782600; 816083</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>787576; 816551</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>784573; 822110</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>720814; 775447</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1040.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1243.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1206.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>901.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>823.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1295.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1575.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1617.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1066.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2335.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2818.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2823.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2081.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1898.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1880.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3125042</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3157395</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3053526</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2937111</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>272666</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>265789</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3469553</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3460336</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3496818</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3338033</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>296216</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>288305</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6594596</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6617732</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6550344</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6275144</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>568882</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>554094</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3061441; 3182939</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3103627; 3204536</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2972270; 3116105</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2849986; 3010716</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>266742; 278350</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>259780; 270594</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3435920; 3493810</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3433596; 3482190</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3464146; 3520518</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3298476; 3364470</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>293366; 298628</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>285864; 290252</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6529167; 6654564</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6553727; 6668485</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6467858; 6618471</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6176188; 6350529</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>561615; 575323</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>548161; 559432</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
